--- a/data/datacall_template/00template/Eel_Data_Call_Annex11_Mortality_rates.xlsx
+++ b/data/datacall_template/00template/Eel_Data_Call_Annex11_Mortality_rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\wg_WGEEL\data\datacall_template\00template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F5078D-5AF0-4C27-A658-81D4F2E44F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1BF52B-A12C-4B03-80FF-2E9E279DF161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="353" yWindow="338" windowWidth="27112" windowHeight="7500" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="698">
   <si>
     <t>Explanation of header and name of sheet providing codes</t>
   </si>
@@ -2007,9 +2007,6 @@
   </si>
   <si>
     <t>This data has either been removed from the database in favour of new data, or corresponds to new data not kept in the database during datacall 2022</t>
-  </si>
-  <si>
-    <t>eel_type_name</t>
   </si>
   <si>
     <t>release_n</t>
@@ -4247,7 +4244,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="224.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="72" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B1" s="72"/>
     </row>
@@ -4261,7 +4258,7 @@
     </row>
     <row r="3" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="27" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -4272,7 +4269,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
@@ -4280,7 +4277,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
@@ -4288,7 +4285,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -4296,7 +4293,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -4312,7 +4309,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -4384,13 +4381,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="64" t="s">
+        <v>689</v>
+      </c>
+      <c r="B1" s="64" t="s">
         <v>690</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="C1" s="64" t="s">
         <v>691</v>
-      </c>
-      <c r="C1" s="64" t="s">
-        <v>692</v>
       </c>
       <c r="D1" s="16"/>
     </row>
@@ -4399,106 +4396,106 @@
         <v>61</v>
       </c>
       <c r="B2" s="65" t="s">
+        <v>665</v>
+      </c>
+      <c r="C2" s="66" t="s">
         <v>666</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="D2" s="16" t="s">
         <v>667</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A3" s="67" t="s">
+        <v>668</v>
+      </c>
+      <c r="B3" s="68" t="s">
         <v>669</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="C3" s="68" t="s">
         <v>670</v>
       </c>
-      <c r="C3" s="68" t="s">
-        <v>671</v>
-      </c>
       <c r="D3" s="16" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" s="68" t="s">
+        <v>671</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>672</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="C4" s="68" t="s">
         <v>673</v>
       </c>
-      <c r="C4" s="68" t="s">
-        <v>674</v>
-      </c>
       <c r="D4" s="16" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A5" s="68" t="s">
+        <v>674</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>675</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="C5" s="68" t="s">
         <v>676</v>
       </c>
-      <c r="C5" s="68" t="s">
-        <v>677</v>
-      </c>
       <c r="D5" s="16" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="68" t="s">
+        <v>677</v>
+      </c>
+      <c r="B6" s="68" t="s">
         <v>678</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="C6" s="67" t="s">
         <v>679</v>
-      </c>
-      <c r="C6" s="67" t="s">
-        <v>680</v>
       </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" ht="114" x14ac:dyDescent="0.45">
       <c r="A7" s="69" t="s">
+        <v>680</v>
+      </c>
+      <c r="B7" s="69" t="s">
         <v>681</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="C7" s="69" t="s">
         <v>682</v>
       </c>
-      <c r="C7" s="69" t="s">
-        <v>683</v>
-      </c>
       <c r="D7" s="16" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="65" t="s">
+        <v>683</v>
+      </c>
+      <c r="B8" s="65" t="s">
         <v>684</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="C8" s="65" t="s">
         <v>685</v>
       </c>
-      <c r="C8" s="65" t="s">
-        <v>686</v>
-      </c>
       <c r="D8" s="16" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="65" t="s">
+        <v>686</v>
+      </c>
+      <c r="B9" s="65" t="s">
         <v>687</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="C9" s="65" t="s">
         <v>688</v>
-      </c>
-      <c r="C9" s="65" t="s">
-        <v>689</v>
       </c>
     </row>
   </sheetData>
@@ -10006,7 +10003,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>2</v>
@@ -10173,7 +10170,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>2</v>
@@ -10235,7 +10232,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C1" s="46" t="s">
         <v>2</v>
@@ -10304,7 +10301,7 @@
   <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10317,7 +10314,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="C1" s="48" t="s">
         <v>2</v>
@@ -33305,7 +33302,7 @@
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D13" t="s">
         <v>37</v>
@@ -33347,7 +33344,7 @@
         <v>543</v>
       </c>
       <c r="C16" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D16" t="s">
         <v>32</v>
@@ -33592,13 +33589,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>653</v>
+      </c>
+      <c r="C35" t="s">
         <v>654</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>655</v>
-      </c>
-      <c r="D35" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
@@ -33606,10 +33603,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>656</v>
+      </c>
+      <c r="C36" t="s">
         <v>657</v>
-      </c>
-      <c r="C36" t="s">
-        <v>658</v>
       </c>
       <c r="D36" t="s">
         <v>37</v>
@@ -33620,10 +33617,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>658</v>
+      </c>
+      <c r="C37" t="s">
         <v>659</v>
-      </c>
-      <c r="C37" t="s">
-        <v>660</v>
       </c>
       <c r="D37" t="s">
         <v>37</v>
@@ -33634,10 +33631,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>693</v>
+      </c>
+      <c r="C38" t="s">
         <v>694</v>
-      </c>
-      <c r="C38" t="s">
-        <v>695</v>
       </c>
       <c r="D38" t="s">
         <v>32</v>
@@ -36028,27 +36025,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ADE5A2812409A74E9D63F27EF88903B8" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7bd325d4d8d3d0cfa3a820f8985111cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" xmlns:ns3="362c980f-4e38-4cca-bd06-5104ee5993c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a46f65cc92525120babafc4c69c5d04c" ns2:_="" ns3:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -36225,10 +36201,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{985E22D2-9286-4FDA-907A-F67DF312C08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FD1668F-CFFC-476A-8729-311F68694EA3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -36251,20 +36259,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FD1668F-CFFC-476A-8729-311F68694EA3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{985E22D2-9286-4FDA-907A-F67DF312C08E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>